--- a/spotifystats/longframe.xlsx
+++ b/spotifystats/longframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +488,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>duration_ms</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207047.96</v>
+        <v>0.7954800000000002</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -506,15 +506,15 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>instrumentalness</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7954800000000002</v>
+        <v>0.06122103179999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -524,15 +524,15 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>instrumentalness</t>
+          <t>liveness</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06122103179999999</v>
+        <v>0.245464</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -542,15 +542,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.64</v>
+        <v>0.32</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -560,15 +560,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>liveness</t>
+          <t>speechiness</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.245464</v>
+        <v>0.077888</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -578,15 +578,15 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>loudness</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.96308</v>
+        <v>0.5898380000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -596,105 +596,105 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mode</t>
+          <t>acousticness</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.32</v>
+        <v>0.2630777999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Your Top 50 Tracks</t>
+          <t>Top Global 50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>speechiness</t>
+          <t>danceability</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.077888</v>
+        <v>0.68926</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Your Top 50 Tracks</t>
+          <t>Top Global 50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tempo</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>122.42278</v>
+        <v>0.6163200000000001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Your Top 50 Tracks</t>
+          <t>Top Global 50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>time_signature</t>
+          <t>instrumentalness</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0.001648378</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Your Top 50 Tracks</t>
+          <t>Top Global 50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>valence</t>
+          <t>liveness</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5898380000000001</v>
+        <v>0.17659</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Your Top 50 Tracks</t>
+          <t>Top Global 50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>acousticness</t>
+          <t>mode</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2759978</v>
+        <v>0.58</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>danceability</t>
+          <t>speechiness</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6788800000000001</v>
+        <v>0.087918</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -722,15 +722,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>duration_ms</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>185714.6</v>
+        <v>0.4994799999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -740,97 +740,97 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>acousticness</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6107600000000001</v>
+        <v>0.2491828000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>instrumentalness</t>
+          <t>danceability</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.00164896</v>
+        <v>0.68612</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.76</v>
+        <v>0.6194400000000002</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>liveness</t>
+          <t>instrumentalness</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.17907</v>
+        <v>0.005075006200000001</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>loudness</t>
+          <t>liveness</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-6.566200000000001</v>
+        <v>0.18602</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -842,13 +842,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -856,297 +856,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.08645799999999998</v>
+        <v>0.08739599999999999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Top Global 50</t>
+          <t>Top 50 daily Hits</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tempo</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>117.73328</v>
+        <v>0.4889219999999998</v>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>Top Global 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>time_signature</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Top Global 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5012199999999999</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Top Global 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>acousticness</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2568208</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>danceability</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.6839200000000001</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>duration_ms</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>184959.72</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.6158400000000001</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>instrumentalness</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.005112613600000002</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>liveness</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.182372</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>loudness</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>-6.80768</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>speechiness</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.092942</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>tempo</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>117.46088</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>time_signature</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Top 50 daily Hits</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.4920819999999999</v>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t>Top 50 daily Hits</t>
         </is>

--- a/spotifystats/longframe.xlsx
+++ b/spotifystats/longframe.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2630777999999999</v>
+        <v>0.2516977999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.68926</v>
+        <v>0.6940400000000001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6163200000000001</v>
+        <v>0.6271400000000001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001648378</v>
+        <v>0.001648606</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.17659</v>
+        <v>0.175328</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.087918</v>
+        <v>0.08866599999999998</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4994799999999999</v>
+        <v>0.51018</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/spotifystats/longframe.xlsx
+++ b/spotifystats/longframe.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06103383999999999</v>
+        <v>0.06169984000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6927000000000001</v>
+        <v>0.69842</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7954800000000002</v>
+        <v>0.7895200000000002</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.245464</v>
+        <v>0.2440840000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.077888</v>
+        <v>0.078906</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5898380000000001</v>
+        <v>0.5801380000000002</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2516977999999999</v>
+        <v>0.2423117999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6940400000000001</v>
+        <v>0.6890000000000002</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6271400000000001</v>
+        <v>0.6347000000000002</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001648606</v>
+        <v>0.001651038</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.175328</v>
+        <v>0.1827100000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08866599999999998</v>
+        <v>0.08927599999999998</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.51018</v>
+        <v>0.526542</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2491828000000001</v>
+        <v>0.2489828000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.68612</v>
+        <v>0.68596</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6194400000000002</v>
+        <v>0.6195000000000003</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.18602</v>
+        <v>0.186092</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.08739599999999999</v>
+        <v>0.08735999999999999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4889219999999998</v>
+        <v>0.4882819999999998</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
